--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -100,22 +100,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>care</t>
@@ -1210,25 +1210,25 @@
         <v>28</v>
       </c>
       <c r="K10">
-        <v>0.7173913043478261</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1260,25 +1260,25 @@
         <v>29</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1310,25 +1310,25 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>0.7070707070707071</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="N12">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1410,25 +1410,25 @@
         <v>32</v>
       </c>
       <c r="K14">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1436,13 +1436,13 @@
         <v>33</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:17">
